--- a/documentos/Analise.xlsx
+++ b/documentos/Analise.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sis-consultorio\documentos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1F4197-2127-4A8C-A52B-B4B4D143FA8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="8700" windowHeight="8190" xr2:uid="{B1787E15-09E1-4F83-80CC-CC6AAFE70E12}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="8700" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,23 +24,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>medico</t>
-  </si>
-  <si>
-    <t>medico_especialidade</t>
-  </si>
-  <si>
-    <t>especialidade</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+  <si>
+    <t>Cadastro de Pacientes – 7 dias</t>
+  </si>
+  <si>
+    <t>Agenda de Atendimentos – 12 dias</t>
+  </si>
+  <si>
+    <t>Tempo de Atendimento de cada consulta</t>
+  </si>
+  <si>
+    <t>Encaixe de Consulta</t>
+  </si>
+  <si>
+    <t>Prontuário Médico – 10 dias</t>
+  </si>
+  <si>
+    <t>Incremental (Histórico do Paciente de todas as Especialidades)</t>
+  </si>
+  <si>
+    <t>Necessidade de Encriptação de Dados, Segurança do Prontuário.</t>
+  </si>
+  <si>
+    <t>Cadastro de medicamentos. – 4 dias</t>
+  </si>
+  <si>
+    <t>Receituário – 6 dias</t>
+  </si>
+  <si>
+    <t>Em uma ou duas vias</t>
+  </si>
+  <si>
+    <t>Criar combinação de medicamentos para determinado tratamento.</t>
+  </si>
+  <si>
+    <t>Doses, Tipos, Quantidade</t>
+  </si>
+  <si>
+    <t>Alopáticos e Homeopáticos</t>
+  </si>
+  <si>
+    <t>Cadastro de Especialidades – 4 dias</t>
+  </si>
+  <si>
+    <t>Pedido de Exames – 4 dias</t>
+  </si>
+  <si>
+    <t>Cadastro de Exames</t>
+  </si>
+  <si>
+    <t>Confirmação de Consultas – 4 dias</t>
+  </si>
+  <si>
+    <t>Chegada de Paciente no Consultório</t>
+  </si>
+  <si>
+    <t>Confirmação de atendimento por telefone</t>
+  </si>
+  <si>
+    <t>Cadastro de Planos de Saúde – 3 dias</t>
+  </si>
+  <si>
+    <t>Pagamento Particular – 5 dias</t>
+  </si>
+  <si>
+    <t>Pagamento a vista</t>
+  </si>
+  <si>
+    <t>Pagamento parcelado</t>
+  </si>
+  <si>
+    <t>Formas de pagamento</t>
+  </si>
+  <si>
+    <t>Comprovante de pagamento para imposto de renda</t>
+  </si>
+  <si>
+    <t>Controle de Usuários – 7</t>
+  </si>
+  <si>
+    <t>Cadastro de usuários</t>
+  </si>
+  <si>
+    <t>Controle de acesso</t>
+  </si>
+  <si>
+    <t>Segurança de dados</t>
+  </si>
+  <si>
+    <t>Hospedagem</t>
+  </si>
+  <si>
+    <t>Domínio</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>Certificado SSL</t>
+  </si>
+  <si>
+    <t>Itens</t>
+  </si>
+  <si>
+    <t>Prazo</t>
+  </si>
+  <si>
+    <t>Implantação</t>
+  </si>
+  <si>
+    <t>Total Dias:</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>50,00/mês</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,8 +184,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -382,41 +513,323 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B8B0BA-F5B3-498B-B68A-49A1FCE9566A}">
-  <dimension ref="B2:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D2:D37)*1.3</f>
+        <v>109.2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>